--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lta-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lta-Tnfrsf1b.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.566126333333334</v>
+        <v>0.014142</v>
       </c>
       <c r="H2">
-        <v>7.698379</v>
+        <v>0.042426</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.481206</v>
+        <v>5.916202333333334</v>
       </c>
       <c r="N2">
-        <v>262.443618</v>
+        <v>17.748607</v>
       </c>
       <c r="O2">
-        <v>0.8890954013316028</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="P2">
-        <v>0.8890954013316029</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="Q2">
-        <v>224.487826388358</v>
+        <v>0.08366693339800001</v>
       </c>
       <c r="R2">
-        <v>2020.390437495222</v>
+        <v>0.753002400582</v>
       </c>
       <c r="S2">
-        <v>0.8890954013316028</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="T2">
-        <v>0.8890954013316029</v>
+        <v>0.3515586392055965</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.566126333333334</v>
+        <v>0.014142</v>
       </c>
       <c r="H3">
-        <v>7.698379</v>
+        <v>0.042426</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>31.096729</v>
       </c>
       <c r="O3">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="P3">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="Q3">
-        <v>26.59937838914345</v>
+        <v>0.146589980506</v>
       </c>
       <c r="R3">
-        <v>239.394405502291</v>
+        <v>1.319309824554</v>
       </c>
       <c r="S3">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="T3">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.566126333333334</v>
+        <v>0.014142</v>
       </c>
       <c r="H4">
-        <v>7.698379</v>
+        <v>0.042426</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.546715</v>
+        <v>0.5467150000000001</v>
       </c>
       <c r="N4">
         <v>1.640145</v>
       </c>
       <c r="O4">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="P4">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="Q4">
-        <v>1.402939758328333</v>
+        <v>0.007731643530000001</v>
       </c>
       <c r="R4">
-        <v>12.626457824955</v>
+        <v>0.06958479177</v>
       </c>
       <c r="S4">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="T4">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
     </row>
   </sheetData>
